--- a/biology/Zoologie/Centropyge_aurantonotus/Centropyge_aurantonotus.xlsx
+++ b/biology/Zoologie/Centropyge_aurantonotus/Centropyge_aurantonotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-ange nain à dos jaune (Centropyge aurantonotus) est une espèce de poissons de la famille des pomacanthidés.  Elle est présente dans les récifs coralliens[1] de l'Ouest de Atlantique Nord et de l'Atlantique Sud[1],[2].La taille maximale pour cette espèce est de 6 cm[2] à 7,5 cm[1] selon les sources.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-ange nain à dos jaune (Centropyge aurantonotus) est une espèce de poissons de la famille des pomacanthidés.  Elle est présente dans les récifs coralliens de l'Ouest de Atlantique Nord et de l'Atlantique Sud,.La taille maximale pour cette espèce est de 6 cm à 7,5 cm selon les sources.
 </t>
         </is>
       </c>
